--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_138.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_138.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Legacy Suites Hotel Donaldsonville Saint James</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Saint James</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>64373</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70086</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70086</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_138.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_138.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1139 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r624491473-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40114</t>
+  </si>
+  <si>
+    <t>8474736</t>
+  </si>
+  <si>
+    <t>624491473</t>
+  </si>
+  <si>
+    <t>10/13/2018</t>
+  </si>
+  <si>
+    <t>Owners need to make a visit</t>
+  </si>
+  <si>
+    <t>I am a female. I have stayed here one other time few months back. I decided before I leave a review I will visit one more time. Well it’s even worse this time. Both stays same issues. No coffee, drink machine out of order again, no snacks to buy what so ever, last stay elevators were scary to get in because they felt like they were going to break down with you in it and this time they don’t work at all. Upon check in I was told they just stopped working that day and the next day would be fixed. However after speaking with other people who are staying here the elevators have been down at least a week and they were told everyday they were being fixed. I had to carry my heavy luggage up flights of stairs without any offer of help. I am here on business so I have lots of heavy belongings. The rooms are nice. The lady (Tonya) who keeps my room tidy is amazing at her job. I come in to a nice room in the evenings, she is Friendly and very thourough. The lady who helped me this evening (no name tag don’t know her name) also very kind. That helps turn my frustrating stay into something lighter when people like them ladies do what they can to help out. I can’t say after this stay I will be returning back. I...I am a female. I have stayed here one other time few months back. I decided before I leave a review I will visit one more time. Well it’s even worse this time. Both stays same issues. No coffee, drink machine out of order again, no snacks to buy what so ever, last stay elevators were scary to get in because they felt like they were going to break down with you in it and this time they don’t work at all. Upon check in I was told they just stopped working that day and the next day would be fixed. However after speaking with other people who are staying here the elevators have been down at least a week and they were told everyday they were being fixed. I had to carry my heavy luggage up flights of stairs without any offer of help. I am here on business so I have lots of heavy belongings. The rooms are nice. The lady (Tonya) who keeps my room tidy is amazing at her job. I come in to a nice room in the evenings, she is Friendly and very thourough. The lady who helped me this evening (no name tag don’t know her name) also very kind. That helps turn my frustrating stay into something lighter when people like them ladies do what they can to help out. I can’t say after this stay I will be returning back. I hope management pops in and cleans house because these rooms are nice and this hotel should be a lot nicer than how it’s being run. Coffee machine in lobby but told you have to get your coffee at gas station because they don’t keep that area stocked is pretty sad. Good luck to the future of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I am a female. I have stayed here one other time few months back. I decided before I leave a review I will visit one more time. Well it’s even worse this time. Both stays same issues. No coffee, drink machine out of order again, no snacks to buy what so ever, last stay elevators were scary to get in because they felt like they were going to break down with you in it and this time they don’t work at all. Upon check in I was told they just stopped working that day and the next day would be fixed. However after speaking with other people who are staying here the elevators have been down at least a week and they were told everyday they were being fixed. I had to carry my heavy luggage up flights of stairs without any offer of help. I am here on business so I have lots of heavy belongings. The rooms are nice. The lady (Tonya) who keeps my room tidy is amazing at her job. I come in to a nice room in the evenings, she is Friendly and very thourough. The lady who helped me this evening (no name tag don’t know her name) also very kind. That helps turn my frustrating stay into something lighter when people like them ladies do what they can to help out. I can’t say after this stay I will be returning back. I...I am a female. I have stayed here one other time few months back. I decided before I leave a review I will visit one more time. Well it’s even worse this time. Both stays same issues. No coffee, drink machine out of order again, no snacks to buy what so ever, last stay elevators were scary to get in because they felt like they were going to break down with you in it and this time they don’t work at all. Upon check in I was told they just stopped working that day and the next day would be fixed. However after speaking with other people who are staying here the elevators have been down at least a week and they were told everyday they were being fixed. I had to carry my heavy luggage up flights of stairs without any offer of help. I am here on business so I have lots of heavy belongings. The rooms are nice. The lady (Tonya) who keeps my room tidy is amazing at her job. I come in to a nice room in the evenings, she is Friendly and very thourough. The lady who helped me this evening (no name tag don’t know her name) also very kind. That helps turn my frustrating stay into something lighter when people like them ladies do what they can to help out. I can’t say after this stay I will be returning back. I hope management pops in and cleans house because these rooms are nice and this hotel should be a lot nicer than how it’s being run. Coffee machine in lobby but told you have to get your coffee at gas station because they don’t keep that area stocked is pretty sad. Good luck to the future of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r614415643-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>614415643</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>Great for short or extended stay.</t>
+  </si>
+  <si>
+    <t>Good place to stay for short term work.  It is very nice for an extended stay hotel. Best rates in the area for a 30 day reservation.  Hotel is clean. Staff is very friendly.  Has standard features.  It was really quiet during my three month stay.  Located close to local food and attractions.  Would definitely recommend this hotel for short or extended stay.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r603423959-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>603423959</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>No complaints!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitely will be a return customer, perfect location for work, quiet, clean, easy to get in and off the highway, located in short distance to fuel, food, Walmart, etc., very friendly staff, all nessasary amenities </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r601822044-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>601822044</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Turnaround Technician</t>
+  </si>
+  <si>
+    <t>Christie North was awesome her and the ENTIRE staff was very professional. The cleaniless of the hotel as well as our room was immaculate. We stayed until Monday July 29th. On behalf of myself and Sprint Safety a huge thank you. We shall return.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r599709822-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>599709822</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>In the moment we walked in the door until we check out service was wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes yes yes yes yes yes  I will share with all my family and friends to stay with you guys at the stay was very comfortable the room was very clean the manager was awesome and all of the ladies at the front desk was very helpful when we needed it </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r595449923-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>595449923</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>I will definitely stay their again. The room I rented was large,two queen size beds, with a kitchen net, with a dish washer and Fridge.  Room was clean, and new looking. Direct TV, HBO. The Staff was very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r589054855-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>589054855</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Clean rooms, but unvacuumed common areas.</t>
+  </si>
+  <si>
+    <t>clean room, but unvacuumed common areas.   Clean room, but unvacuumed common area.   Clean room, but unvacuumed common areas.   Little store opposite the desk was only half-ful of merchandise.   Common areas unvacuumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r586804175-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>586804175</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Recent Stay at Legacy Suites Donaldsonville</t>
+  </si>
+  <si>
+    <t>Legacy Suites is a great little hotel that is new and clean.  Great staff and great value!  I'I stayed about four weeks at this hotel in the fall of 2017 and recently stayed another night.  The staff worked hard to satisfy every request we had.  The hotel is conveniently located at the foot of the Sunshine Bridge on the west side of the Mississippi River.  It's very close to plantation homes along River Road but also only five minutes from Donaldsonville and 20 minutes from Gonzales.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r582536750-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582536750</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>The bed sheets weren’t clean!!!</t>
+  </si>
+  <si>
+    <t>The sheets on the bed were not clean the shower and bathroom was dirty the floors had not been vacuumed in the room at all , in general it was a complete let down! I will not be revisiting this hotel ever.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r578648017-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>578648017</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Love it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love it!!!!! I was very pleased with our room it worked amazing for my husbands business trip ,our little family fit perfectly in there and the kitchen was perfect and clean for home away from home meals lol love staff very friendly and beyond helpful!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r577287041-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>577287041</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Manager was excellent!! Made us feel at home!! Would recommend to anyone!! Staff was very helpful. Perfect location!!  Rooms were bigger than most that I have visited. Everything very assessable!! Will visit again!!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r573329531-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573329531</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Southern Tier Rider</t>
+  </si>
+  <si>
+    <t>I was extremely satisfied with my stay at Legacy Suites. I had just completed my ride from New Roads, wheeled my bike into the lobby, and was greeted by name by Christie at the front desk. She had remembered taking my reservation two months earlier when I told her I would be passing through on a bicycle. While checking in, I mentioned how nerve racking it was crossing the highway 70 bridge over the Mississippi (four lanes with no shoulder). Much to my surprise, when I was checking out the next morning, she told me she had arranged for a police escort back over the bridge to get me safely across. The room itself was very well appointed, and I thought a very good value for the cost. If I am ever in the Donaldsonville area in the future, I would definitely plan to stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was extremely satisfied with my stay at Legacy Suites. I had just completed my ride from New Roads, wheeled my bike into the lobby, and was greeted by name by Christie at the front desk. She had remembered taking my reservation two months earlier when I told her I would be passing through on a bicycle. While checking in, I mentioned how nerve racking it was crossing the highway 70 bridge over the Mississippi (four lanes with no shoulder). Much to my surprise, when I was checking out the next morning, she told me she had arranged for a police escort back over the bridge to get me safely across. The room itself was very well appointed, and I thought a very good value for the cost. If I am ever in the Donaldsonville area in the future, I would definitely plan to stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r561483315-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>561483315</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Was not satisfied with the room, the comforter was soiled, the hallway had a bad odor, trash was on the floor sitting outside the elevator, and the manager was very rude.  I would not recommend this hotel for anyone to stay.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r560749005-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>560749005</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Great service, great people, great property and preat prices!</t>
+  </si>
+  <si>
+    <t>Christie the manager, is always extremely nice accomodating. This property will continue to do great with service like this. Thank you so much; for everything you do. My family and i enjoyed the stay and the hospitality.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r554499814-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>554499814</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Cold water night</t>
+  </si>
+  <si>
+    <t>It was pretty comfortable but I believe the suburban extended stay was a little more nice and a little cheaper for the week. I’m actually pretty satisfied with the stay but I think I should get at least a Comp for a night stay because of the “no water” situation tonight. I know the weather is not anyone’s fault and I am glad to have a place to stay but after a long day in the cold, one thing I really look forward to is a hot shower!!! But the hot water doesn’t work at all and the cold water barely trickles and even makes taking a cold shower even more miserable because it takes so long to rinse off. Lol MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>It was pretty comfortable but I believe the suburban extended stay was a little more nice and a little cheaper for the week. I’m actually pretty satisfied with the stay but I think I should get at least a Comp for a night stay because of the “no water” situation tonight. I know the weather is not anyone’s fault and I am glad to have a place to stay but after a long day in the cold, one thing I really look forward to is a hot shower!!! But the hot water doesn’t work at all and the cold water barely trickles and even makes taking a cold shower even more miserable because it takes so long to rinse off. Lol More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r550628677-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>550628677</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Economical and clean</t>
+  </si>
+  <si>
+    <t>My wife and I spent three days visiting the plantations along the river road, and after one night in New Orleans we spent the next three nights here. It was almost empty but it was clean and for the most part quiet. The last night there was some loud door knocking going on, but we endured that. The desk staff was always helpful and courteous. It was a good deal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r546870351-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>546870351</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Great price and room!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was very impressed with the facility.  The manager Christie was very polite, professional, helpful and knowledgeable. The room was spacious and clean, the only thing that I could say wasn't pleasant was that the room smelled like fried fish. The previous guest must have cooked just before checking out! It wasn't an obnoxious smell but was noticeable.  </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r527937148-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>527937148</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>I Liked It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would stay again.  Very comfortable beds and spacious rooms.   My 15 year old son and I both say we could have stayed a few more nights.  The gym was nice.  I’m sorry I didn’t stay long enough to use the kitchen area in my room.  Will stay again. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r509440876-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>509440876</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, Amenities, and Staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed in every hotel in the area. This is by far the best price  and hotel. Great gym and nice mud room with lockers. The facilities are clean and there is a nice market area to grab something quick if you dont wanna leave. Rooms are modern and updated. My favorite part is the recliner. Overall the best option for the area with competitive pricing. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r503680048-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>503680048</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Absolutely Amazing</t>
+  </si>
+  <si>
+    <t>I was in a bit of a bind and needed place to stay like immediately. The reputation of this property shied me away cuz I thought I couldn't afford such great quality of a room on my budget last minute. When I saw the online price.....i laughed and said it was a mistake. So I called and spoke with Christie, I believe she's the manager but not sure. She was quite professional, very pleasant and extremely helpful. Couldn't ask for anything better in a human being. She really made me feel good. Nevertheless the room was also amazing. It was clean and has all the necessities to make my stay worth the money. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in a bit of a bind and needed place to stay like immediately. The reputation of this property shied me away cuz I thought I couldn't afford such great quality of a room on my budget last minute. When I saw the online price.....i laughed and said it was a mistake. So I called and spoke with Christie, I believe she's the manager but not sure. She was quite professional, very pleasant and extremely helpful. Couldn't ask for anything better in a human being. She really made me feel good. Nevertheless the room was also amazing. It was clean and has all the necessities to make my stay worth the money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r495479567-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>495479567</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Staff! </t>
+  </si>
+  <si>
+    <t>As soon a I walked into the hotel I was amazed at the attention to details from the very courteous and helpful staff to the nice hotel with modern technology and features like the kitchenette, appliances and  a nice view of the sunshine bridge. Definitely felt like home and would consider staying here again. -Ms. Mack</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r493153857-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>493153857</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>First Timer</t>
+  </si>
+  <si>
+    <t>It was a very enjoyable stay. I definitely would go back. Please put Bibles in the rooms. The staff also was vey helpful and friendly. I really don't have any complaints to voice. I could not ask for a more pleasant stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r492869365-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492869365</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>I was very pleased with the hotel and the staff it was our family reunion and we enjoyed ourselves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stay was very pleasing and comfortable the staff were very pleasant and helpful I enjoyed my stay and I would recommend the hotel to anyone that's in the area also they have free drinks lol.. thanks </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r484987260-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>484987260</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Check Out the Legacy in Donaldsonville</t>
+  </si>
+  <si>
+    <t>We have a large project with extended stay in the works and wanted to check-out this hotel for our crew.  Met and exceeded all expectations for our needs.  Hotel staff was awesome as well as accommodations!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r472917449-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>472917449</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christie (Manager) went above and beyond to make my stay very comfortable and enjoyable. Whenever I am back in town, I will definitely stay here again. Christie is an asset to the hotel and the company!  Hope she gets recognized for the great service she provides to her guest. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r471129760-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>471129760</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel for River Road Plantation Tours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We really enjoyed our stay at Legacy Suites in Donaldsonville, LA! The room was spacious with modern decor. We had two queen beds, a sitting area and kitchen – with a fill-sized fridge, which was perfect for preparing breakfast and evening snacks. The property is new or at least as clean as new, the staff was friendly and helpful with directions to a fantastic local restaurant. The only downside we experienced was slow internet service. I would most certainly recommend this hotel if you’re in the area and traveling with a larger group! </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r467904188-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467904188</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>The room was a great value.  HOWEVER, the bed linen was dirty once you pulled back the top layer of bedding in 2 of the rooms i visited.  Rooms were spacious and everything i needed was available.  I would visit again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r467602670-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467602670</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Very clean and hospitable staff. It was the nicest hotel in the area and I will be back next time we have business in the area. They have always exceeded our expectations  with pricing and quality. Always will be our first hotel to call for extended stays.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r463892473-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>463892473</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoyed my stay at legacy suites it was very clean and comfortable. The workers were very friendly. I enjoyed the free drinks and coffee. My experience was awesome and when I come back to visit this hotel will be one of my choices </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r463280134-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>463280134</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Great service and nice people.</t>
+  </si>
+  <si>
+    <t>The only thing that could make it better is more security cameras outside or a security guard. We had no problems but heard someone else did. The staff was friendly and the rooms were clean. Rooms were secure</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r458173633-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>458173633</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>My Visit</t>
+  </si>
+  <si>
+    <t>I have enjoyed staying in this place.  This was third time staying there.  The rooms re clean, bed comfortable, the staff is wonderful. it is located to many places such as restaurants and stores that are a must.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r455382574-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>455382574</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Happy worker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would recommend this place to anyone who is coming to work and or visiting this area. Great hotel with all amenities to cook and the comfort of home with the kitchen and huge walk in showers are nice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r444599856-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>444599856</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Immaculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I LOVED EVERYTHING! I had out of town guests and my Bridal Party booked here for my wedding. Thanks to Dania and Audrey the whole experience was Awesome and problem free. My guests really enjoyed their stay here. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r437721783-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>437721783</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Good room for the price good location good value only negative was there was only 1 towel and 1 wash rag in the bathroom and considering it was 1am at arrival we were tired to have to track down towels most comfortable bed</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r435681699-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435681699</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>No Problem Raceway alternate track hotel</t>
+  </si>
+  <si>
+    <t>Clerk was helpful and nice, well spoken and great atittude! Room was spacious and clean. Ac worked fine and room was more than we expected for a hotel basically in the middle of nowhere. The only problem we had was nothi g really to eat late nite. We didnt arrive until 10:45 pm and the Sonic was closing which only left the PopIngos gas station but we were thankful for that so all worked out well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r431366795-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>431366795</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>The front desk gave me a key i went to the room  opened the door was some else room had to go back to the desk for another key this time he gave me another room when in ur rooms secure it with deadboltsMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>The front desk gave me a key i went to the room  opened the door was some else room had to go back to the desk for another key this time he gave me another room when in ur rooms secure it with deadboltsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r429475162-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>429475162</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Loved it always come here to relax. Front desk clerk was very nice. The room and shower are always clean. Every time I need to get away I always come here and never be disappointed. I will be back in a few weeks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r429374977-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>429374977</t>
+  </si>
+  <si>
+    <t>Dissapointment</t>
+  </si>
+  <si>
+    <t>I was disappointed in the service and attitude of the hotel staff at the front desk.  I have stayed at extended stay type hotels before but never have been ask to do so much for service.  I had to bring towels back to get towels,  had to ask for soap and shampoo!.  Seems like everything I wanted was a hassle for the front desk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r424099563-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424099563</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>We stayed here the first two nights of our honeymoon as the location was good for visiting the plantations. The staff was friendly and the room was very clean and nicely furnished. I particularly enjoyed the little market they have as we were leaving early and getting back late. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here the first two nights of our honeymoon as the location was good for visiting the plantations. The staff was friendly and the room was very clean and nicely furnished. I particularly enjoyed the little market they have as we were leaving early and getting back late. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r422274851-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>422274851</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Nice place but not much around.</t>
+  </si>
+  <si>
+    <t>No restaurants around so if you decide to eat in, buy something you can microwave unless you want to buy some pots and pans. Laundry room was clean and affordable. Using CC instead of quarters was nice</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r421584275-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>421584275</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Awesome  Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love this place, Grate Staff too ,very cool place, it's always nice and clean, great parking lot , A/C in the rooms works nicely too love to sleep nice and cool and getting up filling grate if we have to go down there I'll be checking back there again for sure </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r415716768-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>415716768</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Welcoming home during Baton Rouge Disaster</t>
+  </si>
+  <si>
+    <t>If you are a frequent guest of extended-stay style of lodging, Legacy Suites is a bit unique.
+This is sort of bare bones… I had a 2-bed room, with kitchenette (microwave, full refrigerator, cooktop, kitchen sink, dishwasher, dishes, silverware). It is unusual that no pans are provided, and most of us don’t travel with pots and pans. 
+It also provides just weekly housekeeping, though I found that I could get towels, bedding, vacuum cleaner, iron and anything that I needed from the friendly staff.  Room itself was very clean, good beds, good bath. 
+Another unusual idea is a side entry “mudroom”, where you could come into the hotel after working in floods, construction, or whatever and remove dirty workboots, outerwear, etc and use lockers to store equipment and outerwear (padlocks provided). This was very helpful in trying to keep both the premises and my room clean and cozy. 
+On site laundry machines are plentiful and there is also an outside laundry service that can be had for ($20/load  clean and fold – not associated with hotel).
+I was there as part of a Baton Rouge flood disaster response team. Donaldsonville was as close as I could get to Baton Rouge, as most hotels were well booked with flood victims and other workers. 
+This hotel went out of its way to assist victims, which I highly praise them for.
+What made my stay great was the staff. I was working 16...If you are a frequent guest of extended-stay style of lodging, Legacy Suites is a bit unique.This is sort of bare bones… I had a 2-bed room, with kitchenette (microwave, full refrigerator, cooktop, kitchen sink, dishwasher, dishes, silverware). It is unusual that no pans are provided, and most of us don’t travel with pots and pans. It also provides just weekly housekeeping, though I found that I could get towels, bedding, vacuum cleaner, iron and anything that I needed from the friendly staff.  Room itself was very clean, good beds, good bath. Another unusual idea is a side entry “mudroom”, where you could come into the hotel after working in floods, construction, or whatever and remove dirty workboots, outerwear, etc and use lockers to store equipment and outerwear (padlocks provided). This was very helpful in trying to keep both the premises and my room clean and cozy. On site laundry machines are plentiful and there is also an outside laundry service that can be had for ($20/load  clean and fold – not associated with hotel).I was there as part of a Baton Rouge flood disaster response team. Donaldsonville was as close as I could get to Baton Rouge, as most hotels were well booked with flood victims and other workers. This hotel went out of its way to assist victims, which I highly praise them for.What made my stay great was the staff. I was working 16 hour days and it was wonderful to come home to a very welcoming, cheerful and helpful organization.THANK YOU CHRISTIE!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>If you are a frequent guest of extended-stay style of lodging, Legacy Suites is a bit unique.
+This is sort of bare bones… I had a 2-bed room, with kitchenette (microwave, full refrigerator, cooktop, kitchen sink, dishwasher, dishes, silverware). It is unusual that no pans are provided, and most of us don’t travel with pots and pans. 
+It also provides just weekly housekeeping, though I found that I could get towels, bedding, vacuum cleaner, iron and anything that I needed from the friendly staff.  Room itself was very clean, good beds, good bath. 
+Another unusual idea is a side entry “mudroom”, where you could come into the hotel after working in floods, construction, or whatever and remove dirty workboots, outerwear, etc and use lockers to store equipment and outerwear (padlocks provided). This was very helpful in trying to keep both the premises and my room clean and cozy. 
+On site laundry machines are plentiful and there is also an outside laundry service that can be had for ($20/load  clean and fold – not associated with hotel).
+I was there as part of a Baton Rouge flood disaster response team. Donaldsonville was as close as I could get to Baton Rouge, as most hotels were well booked with flood victims and other workers. 
+This hotel went out of its way to assist victims, which I highly praise them for.
+What made my stay great was the staff. I was working 16...If you are a frequent guest of extended-stay style of lodging, Legacy Suites is a bit unique.This is sort of bare bones… I had a 2-bed room, with kitchenette (microwave, full refrigerator, cooktop, kitchen sink, dishwasher, dishes, silverware). It is unusual that no pans are provided, and most of us don’t travel with pots and pans. It also provides just weekly housekeeping, though I found that I could get towels, bedding, vacuum cleaner, iron and anything that I needed from the friendly staff.  Room itself was very clean, good beds, good bath. Another unusual idea is a side entry “mudroom”, where you could come into the hotel after working in floods, construction, or whatever and remove dirty workboots, outerwear, etc and use lockers to store equipment and outerwear (padlocks provided). This was very helpful in trying to keep both the premises and my room clean and cozy. On site laundry machines are plentiful and there is also an outside laundry service that can be had for ($20/load  clean and fold – not associated with hotel).I was there as part of a Baton Rouge flood disaster response team. Donaldsonville was as close as I could get to Baton Rouge, as most hotels were well booked with flood victims and other workers. This hotel went out of its way to assist victims, which I highly praise them for.What made my stay great was the staff. I was working 16 hour days and it was wonderful to come home to a very welcoming, cheerful and helpful organization.THANK YOU CHRISTIE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r413124129-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>413124129</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>So thankful for them making room for us...nice place!</t>
+  </si>
+  <si>
+    <t>We were coming in to meet with a pastor in Baton Rouge and hotels were booked up for miles and miles because of the flood.  They went out of their way to make room for us and treated us super nice.  We greatly appreciate it!The hotel is fairly new, but already showing its wear and tear.  The elevator is slow, but there's always stairs if you don't want to wait.  Also, know that there is no soap or wash rags...be sure and bring those.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r413042814-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>413042814</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Hotel, Great Staff</t>
+  </si>
+  <si>
+    <t>We stayed at Legacy Suites while we were down in the Louisiana to help with clean up from the flood. This hotel was very accommodating, super friendly staff and very clean rooms. I was a little nervous that the hotel would be loud since it was a new construction, but the hotel was super quite. The hotel has an awesome store area for snacks and drinks and very nice Commons areas. Way to go Legacy Suites, you have a great property and a great brand!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r412839078-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>412839078</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Family Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This visit wasn't as good as the last time. During this visit the hotel had low to no water pressure and could not take shower. Room smelled like smoke even though it was a no smoking room. Elevator takes forever and probably be quicker to take the stairs. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r410038954-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>410038954</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Great place!!</t>
+  </si>
+  <si>
+    <t>We were one of the many flood victims in Denham Springs. Legacy Suites was the closest hotel we could find after we escaped the high waters. This place is top notch.... Everything about it from check in to check out. The building and grounds are very well maintained, the rooms very clean and the staff goes above and beyond to make your stay a great one. Thank you Legacy Suites and staff for the welcomed feeling you gave us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r408758742-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>408758742</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>snoop</t>
+  </si>
+  <si>
+    <t>Everything was extremely awesome. I can't wait to return back. The room was very clean and neat. The set up with the refrigerator, stove top, microwave and dish washing I thought was great. Made us felt like we were living in our own apartments. Great place to relax and enjoy your evening.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r407280700-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>407280700</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>The staff was very courteous and helpful. If you had a  question or concern, there was always someone there to assist you. I enjoyed my stay.. The room was quite large and provided all the amities needed to accomidate my needs.Thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r406789024-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>406789024</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Emergency stop</t>
+  </si>
+  <si>
+    <t>Nice room, clean facility, very pleased with the hotel especially since it was last minute booking after we got stranded there because of the flooding. Hotel staff were very nice and helpful. Would recommend the place to stay anytime.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r403678255-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>403678255</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>VERY PLEASED</t>
+  </si>
+  <si>
+    <t>I only stayed 1 night but I had everything I needed. The price was great and piece of mind if I had to cancel. My son was staying in the same location for business and he recommended this location and my husband and I both enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris S, Social Media Team at Legacy Suites Donaldsonville / Saint James Parish, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>I only stayed 1 night but I had everything I needed. The price was great and piece of mind if I had to cancel. My son was staying in the same location for business and he recommended this location and my husband and I both enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r391539952-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>391539952</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Legacy Suites was superb in every way</t>
+  </si>
+  <si>
+    <t>Legacy Suites was a diamond in the rough. There is not much around this area except for industry, but I happened to be passing through and found it a great midway point for a stay that was a short distance to Baton Rouge and New Orleans without all the inner city traffic. Legacy Suites was definitely a newer looking property with spotless everything. The lobby was great, and the room was much more spacious that I anticipated. Even with a last second request on my part during an evening they were booked solid, they still managed to accommodate. The kitchen was fantastic and when I arrived they had even just placed brand new cups and plates in the room. It was a quiet hotel, not much in the area but it was definitely a great rest and would be ideal for an extended stay only a short drive away from some of the best that Louisiana has to offer. I'd definitely consider staying there again in the future. The manager was fantastic and the rest of the staff was incredibly friendly as well. Great place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Michael H, Manager at Legacy Suites Donaldsonville / Saint James Parish, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Legacy Suites was a diamond in the rough. There is not much around this area except for industry, but I happened to be passing through and found it a great midway point for a stay that was a short distance to Baton Rouge and New Orleans without all the inner city traffic. Legacy Suites was definitely a newer looking property with spotless everything. The lobby was great, and the room was much more spacious that I anticipated. Even with a last second request on my part during an evening they were booked solid, they still managed to accommodate. The kitchen was fantastic and when I arrived they had even just placed brand new cups and plates in the room. It was a quiet hotel, not much in the area but it was definitely a great rest and would be ideal for an extended stay only a short drive away from some of the best that Louisiana has to offer. I'd definitely consider staying there again in the future. The manager was fantastic and the rest of the staff was incredibly friendly as well. Great place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r384923937-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>384923937</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>A home away from home</t>
+  </si>
+  <si>
+    <t>Stayed here last night. Our first time in a Legacy Suites. LOVED IT! Front lobby was super clean and the staff was very friendly. We were greeted upon arrival and checkout. Room was very clean and huge! We had 2 double beds and slept like kings. The full kitchen setup is great. Full size fridge was perfect for our road groceries. Plenty of counter space. Computer desk and nice leather chair to watch TV. Bathroom is huge and the shower is perfect. Would stay here again, especially for multiple nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stayed here last night. Our first time in a Legacy Suites. LOVED IT! Front lobby was super clean and the staff was very friendly. We were greeted upon arrival and checkout. Room was very clean and huge! We had 2 double beds and slept like kings. The full kitchen setup is great. Full size fridge was perfect for our road groceries. Plenty of counter space. Computer desk and nice leather chair to watch TV. Bathroom is huge and the shower is perfect. Would stay here again, especially for multiple nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r371304084-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>371304084</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>We only stayed one night but my daughter, who is working in the area, is staying there on a long term basis.  We found the place to be very clean and the staff very friendly.  My daughter is still there as of this writing and she continues to be very pleased with her stay.  They have a fitness room, laundry area, and an area with snack items to purchase.  There is no coffee pot in the room but coffee can be purchased as well as other beverages.  I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amberlee W, General Manager at Legacy Suites Donaldsonville / Saint James Parish, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>We only stayed one night but my daughter, who is working in the area, is staying there on a long term basis.  We found the place to be very clean and the staff very friendly.  My daughter is still there as of this writing and she continues to be very pleased with her stay.  They have a fitness room, laundry area, and an area with snack items to purchase.  There is no coffee pot in the room but coffee can be purchased as well as other beverages.  I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r368134522-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>368134522</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing!  Thank you!!!! </t>
+  </si>
+  <si>
+    <t>My family and I stayed at Legacy during our SpringBreak vacation in March.  Everyone at the hotel was so nice and accommodating!!!  The front desk staff we encountered had no issues with supplying our family with information on all the amazing things to do within the area and was happy to help with directions and any discounts they had available for things like the swamp tours and plantations tours that were nearby as well as an outlet mall about 20 mins away I had no idea about!!  They also gave us A+ directions to New Orleans which was only about an hour away to my surprise!!  They had a dinner/get together for us guests called a Gathering where they cooked for us while we socialized which the kids loved being able to be free on the days no activities were planned.  We definitely got use of the laundry considering we were there for a week.  My husband appreciated the 24 hr gym so he could do his thing before our crew awaked lol!  I genuinely had an amazing vacation that I enjoyed with my family and want to thank all of you at Legacy for being so awesome.  The manager even made sure we were 110% with our stay by stopping to speak to us mid stay, really made me feel like a wanted guest.  We will DEFINITELY be back next year! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Amberlee W, General Manager at Legacy Suites Donaldsonville / Saint James Parish, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Legacy during our SpringBreak vacation in March.  Everyone at the hotel was so nice and accommodating!!!  The front desk staff we encountered had no issues with supplying our family with information on all the amazing things to do within the area and was happy to help with directions and any discounts they had available for things like the swamp tours and plantations tours that were nearby as well as an outlet mall about 20 mins away I had no idea about!!  They also gave us A+ directions to New Orleans which was only about an hour away to my surprise!!  They had a dinner/get together for us guests called a Gathering where they cooked for us while we socialized which the kids loved being able to be free on the days no activities were planned.  We definitely got use of the laundry considering we were there for a week.  My husband appreciated the 24 hr gym so he could do his thing before our crew awaked lol!  I genuinely had an amazing vacation that I enjoyed with my family and want to thank all of you at Legacy for being so awesome.  The manager even made sure we were 110% with our stay by stopping to speak to us mid stay, really made me feel like a wanted guest.  We will DEFINITELY be back next year! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r353791546-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>353791546</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>A fresh new hotel brand...</t>
+  </si>
+  <si>
+    <t>My wife and I really enjoyed our stay here.  The room was very nice and the bed was comfortable.  I would highly recommend this hotel for your extended stay.  We especially liked the lobby and sundries area where many convenience items are available.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I really enjoyed our stay here.  The room was very nice and the bed was comfortable.  I would highly recommend this hotel for your extended stay.  We especially liked the lobby and sundries area where many convenience items are available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r351433319-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>351433319</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Great rates and super clean</t>
+  </si>
+  <si>
+    <t>Rooms are the perfect size for someone traveling for work and includes refrigerator, 2 burner stove, dish washer and microwave. Very clean rooms and the staff has been great so far. There is also a gym, snack area, washer and driers on the first floor. Elevator is out of order and im on the 3rd floor but even that is not enough to make me give a lower rating. I would take the stairs anyway probaby.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Rooms are the perfect size for someone traveling for work and includes refrigerator, 2 burner stove, dish washer and microwave. Very clean rooms and the staff has been great so far. There is also a gym, snack area, washer and driers on the first floor. Elevator is out of order and im on the 3rd floor but even that is not enough to make me give a lower rating. I would take the stairs anyway probaby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r337722859-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>337722859</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't run a business </t>
+  </si>
+  <si>
+    <t>Stayed about 4 months august 2015 till now ( leaving tomorrow ). To start I was quoted 1 rate before ever checking in and at check in the rate was about 100$ more and they had a b.s. excuse as to why but I stayed any ways. After that been over charged on multiple occasions that had to b corrected. The elevator breaks at least once a week  ( normally with someone in it). And now the last staw, they decided to go up on room rates and didn't tell anyone (at least not me). I probably wld give it 3 stars if they actually had a manager here who cld correct these issues that actually stay more than a few hrs a day while most guest r working but no instead i have to leave a message with whatever attendant is here and hope the manager feels it's convenient to fix the problem at some point the following dayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Amberlee W, General Manager at Legacy Suites Donaldsonville / Saint James Parish, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Stayed about 4 months august 2015 till now ( leaving tomorrow ). To start I was quoted 1 rate before ever checking in and at check in the rate was about 100$ more and they had a b.s. excuse as to why but I stayed any ways. After that been over charged on multiple occasions that had to b corrected. The elevator breaks at least once a week  ( normally with someone in it). And now the last staw, they decided to go up on room rates and didn't tell anyone (at least not me). I probably wld give it 3 stars if they actually had a manager here who cld correct these issues that actually stay more than a few hrs a day while most guest r working but no instead i have to leave a message with whatever attendant is here and hope the manager feels it's convenient to fix the problem at some point the following dayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r326503031-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>326503031</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Great New Hotel</t>
+  </si>
+  <si>
+    <t>This Hotel is like going home. The rooms have full refrigerators, stove top and microwave. They have a store on site to get a quick bite or a fountain soda. The rooms are very cool looking. The Hotel is a great value for the money. Higher end feel for a great rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This Hotel is like going home. The rooms have full refrigerators, stove top and microwave. They have a store on site to get a quick bite or a fountain soda. The rooms are very cool looking. The Hotel is a great value for the money. Higher end feel for a great rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r325368591-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>325368591</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>New, clean, modern &amp; great staff!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on two different occasions and both times were great.  The hotel is brand new and the rooms are spacious.  They are about 10 minutes away from I-10 and right between Baton Rouge &amp; New Orleans.  There is a Walmart 5 minutes away too.  They have little kitchens in their rooms so you can cook your own meals which worked great for me because I work 3rd shift and not many places are open when I'm getting off.  They also have a 24 hour laundry room which was also nice with my schedule.  The employees were all nice too! This is my only choice when I am in town now. Thanks Legacy Suites!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on two different occasions and both times were great.  The hotel is brand new and the rooms are spacious.  They are about 10 minutes away from I-10 and right between Baton Rouge &amp; New Orleans.  There is a Walmart 5 minutes away too.  They have little kitchens in their rooms so you can cook your own meals which worked great for me because I work 3rd shift and not many places are open when I'm getting off.  They also have a 24 hour laundry room which was also nice with my schedule.  The employees were all nice too! This is my only choice when I am in town now. Thanks Legacy Suites!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r307013192-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>307013192</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Crooked Management</t>
+  </si>
+  <si>
+    <t>Stayed for 9 days and was told room was 68 dollars a day and they tried over charging me 1600.00 then 1000.00 do not give them your card info they could not even explain to my bank what they did........hotel is new and is already falling apart all the way up to management.....BewareMoreShow less</t>
+  </si>
+  <si>
+    <t>Amberlee W, General Manager at Legacy Suites Donaldsonville / Saint James Parish, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 9 days and was told room was 68 dollars a day and they tried over charging me 1600.00 then 1000.00 do not give them your card info they could not even explain to my bank what they did........hotel is new and is already falling apart all the way up to management.....BewareMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40114-d8474736-r298120522-Legacy_Suites_Donaldsonville_Saint_James_Parish-Donaldsonville_Louisiana.html</t>
+  </si>
+  <si>
+    <t>298120522</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>I was honored to be one of the first guests at Legacy Suites in Donaldsonville.  The room was modern and spacious - VERY surprising for the price!  I enjoyed the wide selection of channels with the Directv in the room and the Internet was fast.  While I was only there for a week, I'm in the area often for work for weeks at a time and plan on making Legacy my go to!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was honored to be one of the first guests at Legacy Suites in Donaldsonville.  The room was modern and spacious - VERY surprising for the price!  I enjoyed the wide selection of channels with the Directv in the room and the Internet was fast.  While I was only there for a week, I'm in the area often for work for weeks at a time and plan on making Legacy my go to!More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +1694,3581 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" t="s">
+        <v>151</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" t="s">
+        <v>179</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" t="s">
+        <v>195</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" t="s">
+        <v>212</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>218</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" t="s">
+        <v>221</v>
+      </c>
+      <c r="K35" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" t="s">
+        <v>227</v>
+      </c>
+      <c r="K36" t="s">
+        <v>228</v>
+      </c>
+      <c r="L36" t="s">
+        <v>229</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>224</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" t="s">
+        <v>233</v>
+      </c>
+      <c r="L37" t="s">
+        <v>234</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>235</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>236</v>
+      </c>
+      <c r="X37" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" t="s">
+        <v>242</v>
+      </c>
+      <c r="L38" t="s">
+        <v>243</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>235</v>
+      </c>
+      <c r="O38" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>245</v>
+      </c>
+      <c r="J39" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" t="s">
+        <v>246</v>
+      </c>
+      <c r="L39" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>235</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J40" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" t="s">
+        <v>251</v>
+      </c>
+      <c r="L40" t="s">
+        <v>252</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>253</v>
+      </c>
+      <c r="O40" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>254</v>
+      </c>
+      <c r="X40" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>258</v>
+      </c>
+      <c r="J41" t="s">
+        <v>259</v>
+      </c>
+      <c r="K41" t="s">
+        <v>260</v>
+      </c>
+      <c r="L41" t="s">
+        <v>261</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" t="s">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>253</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>268</v>
+      </c>
+      <c r="J43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" t="s">
+        <v>270</v>
+      </c>
+      <c r="L43" t="s">
+        <v>271</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>272</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" t="s">
+        <v>277</v>
+      </c>
+      <c r="L44" t="s">
+        <v>278</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>272</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>280</v>
+      </c>
+      <c r="J45" t="s">
+        <v>276</v>
+      </c>
+      <c r="K45" t="s">
+        <v>281</v>
+      </c>
+      <c r="L45" t="s">
+        <v>282</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>272</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>284</v>
+      </c>
+      <c r="J46" t="s">
+        <v>285</v>
+      </c>
+      <c r="K46" t="s">
+        <v>286</v>
+      </c>
+      <c r="L46" t="s">
+        <v>287</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>272</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>288</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>289</v>
+      </c>
+      <c r="J47" t="s">
+        <v>290</v>
+      </c>
+      <c r="K47" t="s">
+        <v>291</v>
+      </c>
+      <c r="L47" t="s">
+        <v>292</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>294</v>
+      </c>
+      <c r="J48" t="s">
+        <v>295</v>
+      </c>
+      <c r="K48" t="s">
+        <v>296</v>
+      </c>
+      <c r="L48" t="s">
+        <v>297</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>272</v>
+      </c>
+      <c r="O48" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" t="s">
+        <v>300</v>
+      </c>
+      <c r="K49" t="s">
+        <v>301</v>
+      </c>
+      <c r="L49" t="s">
+        <v>302</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>272</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>304</v>
+      </c>
+      <c r="J50" t="s">
+        <v>305</v>
+      </c>
+      <c r="K50" t="s">
+        <v>306</v>
+      </c>
+      <c r="L50" t="s">
+        <v>307</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>272</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J51" t="s">
+        <v>310</v>
+      </c>
+      <c r="K51" t="s">
+        <v>311</v>
+      </c>
+      <c r="L51" t="s">
+        <v>312</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>272</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>313</v>
+      </c>
+      <c r="X51" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" t="s">
+        <v>318</v>
+      </c>
+      <c r="K52" t="s">
+        <v>319</v>
+      </c>
+      <c r="L52" t="s">
+        <v>320</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>321</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>322</v>
+      </c>
+      <c r="X52" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" t="s">
+        <v>327</v>
+      </c>
+      <c r="K53" t="s">
+        <v>328</v>
+      </c>
+      <c r="L53" t="s">
+        <v>329</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>330</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>322</v>
+      </c>
+      <c r="X53" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>332</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" t="s">
+        <v>334</v>
+      </c>
+      <c r="K54" t="s">
+        <v>335</v>
+      </c>
+      <c r="L54" t="s">
+        <v>336</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>337</v>
+      </c>
+      <c r="X54" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>341</v>
+      </c>
+      <c r="J55" t="s">
+        <v>342</v>
+      </c>
+      <c r="K55" t="s">
+        <v>343</v>
+      </c>
+      <c r="L55" t="s">
+        <v>344</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>345</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>346</v>
+      </c>
+      <c r="X55" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" t="s">
+        <v>351</v>
+      </c>
+      <c r="K56" t="s">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s">
+        <v>353</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>345</v>
+      </c>
+      <c r="O56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>346</v>
+      </c>
+      <c r="X56" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>355</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>356</v>
+      </c>
+      <c r="J57" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" t="s">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s">
+        <v>359</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>360</v>
+      </c>
+      <c r="O57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>346</v>
+      </c>
+      <c r="X57" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>362</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>363</v>
+      </c>
+      <c r="J58" t="s">
+        <v>364</v>
+      </c>
+      <c r="K58" t="s">
+        <v>365</v>
+      </c>
+      <c r="L58" t="s">
+        <v>366</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X58" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>371</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>372</v>
+      </c>
+      <c r="J59" t="s">
+        <v>373</v>
+      </c>
+      <c r="K59" t="s">
+        <v>374</v>
+      </c>
+      <c r="L59" t="s">
+        <v>375</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>376</v>
+      </c>
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>346</v>
+      </c>
+      <c r="X59" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>379</v>
+      </c>
+      <c r="J60" t="s">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s">
+        <v>382</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>376</v>
+      </c>
+      <c r="O60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>346</v>
+      </c>
+      <c r="X60" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>384</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>385</v>
+      </c>
+      <c r="J61" t="s">
+        <v>386</v>
+      </c>
+      <c r="K61" t="s">
+        <v>387</v>
+      </c>
+      <c r="L61" t="s">
+        <v>388</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>367</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>389</v>
+      </c>
+      <c r="X61" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64373</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>393</v>
+      </c>
+      <c r="J62" t="s">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s">
+        <v>396</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>367</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>389</v>
+      </c>
+      <c r="X62" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +5291,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>401</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>403</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>404</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>405</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +5323,31 @@
         <v>64373</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>409</v>
       </c>
       <c r="E2" t="n">
         <v>70086</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>413</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
